--- a/spec/test_data/テーブル.xlsx
+++ b/spec/test_data/テーブル.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\GitHub\SpreadsheetAsData\spec\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>数値</t>
     <rPh sb="0" eb="2">
@@ -90,12 +86,64 @@
   <si>
     <t>列2</t>
   </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +261,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル6" displayName="テーブル6" ref="A1:C12" totalsRowShown="0">
+  <autoFilter ref="A1:C12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="int"/>
+    <tableColumn id="2" name="float"/>
+    <tableColumn id="3" name="string"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -256,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,10 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +382,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,16 +557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -519,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -530,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2.2000000000000002</v>
       </c>
@@ -541,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -555,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>4.4000000000000004</v>
       </c>
@@ -569,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>5.5</v>
       </c>
@@ -583,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>6.6</v>
       </c>
@@ -608,16 +666,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -625,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="D6" t="s">
         <v>12</v>
       </c>
@@ -633,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -650,4 +708,156 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9.9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/spec/test_data/テーブル.xlsx
+++ b/spec/test_data/テーブル.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\GitHub\SpreadsheetAsData\spec\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>数値</t>
     <rPh sb="0" eb="2">
@@ -142,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +234,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="テーブル28" displayName="テーブル28" ref="G4:J7" totalsRowShown="0">
+  <autoFilter ref="G4:J7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="数値"/>
+    <tableColumn id="2" name="数値2"/>
+    <tableColumn id="3" name="文字列"/>
+    <tableColumn id="4" name="真偽値"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
@@ -239,7 +257,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル4" displayName="テーブル4" ref="A9:B14" totalsRowShown="0">
   <autoFilter ref="A9:B14"/>
   <tableColumns count="2">
@@ -250,7 +268,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル5" displayName="テーブル5" ref="D6:E13" totalsRowShown="0">
   <autoFilter ref="D6:E13"/>
   <tableColumns count="2">
@@ -261,7 +279,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル8" displayName="テーブル8" ref="G11:H19" totalsRowShown="0">
+  <autoFilter ref="G11:H19"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル6" displayName="テーブル6" ref="A1:C12" totalsRowShown="0">
   <autoFilter ref="A1:C12"/>
   <tableColumns count="3">
@@ -316,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +377,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,6 +412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,16 +588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -588,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2.2000000000000002</v>
       </c>
@@ -599,7 +630,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -612,8 +671,20 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>5.5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4.4000000000000004</v>
       </c>
@@ -626,8 +697,20 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <v>6.6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5.5</v>
       </c>
@@ -641,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6.6</v>
       </c>
@@ -653,50 +736,6 @@
       </c>
       <c r="E9" t="b">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -710,17 +749,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -731,7 +824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -753,7 +846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -764,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -775,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -786,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -797,7 +890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -808,7 +901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -819,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -830,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -841,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>

--- a/spec/test_data/テーブル.xlsx
+++ b/spec/test_data/テーブル.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>数値</t>
     <rPh sb="0" eb="2">
@@ -104,6 +104,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,30 +145,6 @@
   </si>
   <si>
     <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -753,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11:H19"/>
     </sheetView>
   </sheetViews>
@@ -807,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,13 +830,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -843,7 +847,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -854,26 +858,26 @@
         <v>3.3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4.4000000000000004</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -881,13 +885,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>6.6</v>
+        <v>9.9</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -898,51 +902,51 @@
         <v>6.6</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>8.8000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>7.7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/spec/test_data/テーブル.xlsx
+++ b/spec/test_data/テーブル.xlsx
@@ -9,19 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="book_cell">Sheet2!$F$33</definedName>
+    <definedName name="book_range">Sheet2!$C$32:$D$36</definedName>
+    <definedName name="cell_name" localSheetId="1">Sheet2!$E$25</definedName>
+    <definedName name="range_name" localSheetId="1">Sheet2!$B$23:$C$27</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>数値</t>
     <rPh sb="0" eb="2">
@@ -145,6 +151,21 @@
   </si>
   <si>
     <t>え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,7 +617,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,10 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,6 +814,92 @@
       </c>
       <c r="H11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
